--- a/tables/SART-Ppt-Demo-Questionnaire-Scores.xlsx
+++ b/tables/SART-Ppt-Demo-Questionnaire-Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elaine/Desktop/Git_Studies/MWMB_ADHD/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDE504C-88BB-3247-B79A-1F6B428FE925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA154A8-0587-1446-B84B-B17F17BF0EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="105">
   <si>
     <t>SubID</t>
   </si>
@@ -337,12 +337,24 @@
   <si>
     <t>C044</t>
   </si>
+  <si>
+    <t>may be excessively sleepy</t>
+  </si>
+  <si>
+    <t>unlikely to be abnormally sleepy.</t>
+  </si>
+  <si>
+    <t>average amount of daytime sleepiness.</t>
+  </si>
+  <si>
+    <t>excessively sleepy.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -363,6 +375,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -535,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -582,19 +599,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -654,6 +664,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1164,10 +1182,10 @@
   <dimension ref="A1:T1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1302,12 +1320,11 @@
       <c r="R2" s="6">
         <v>19</v>
       </c>
-      <c r="S2" s="6">
-        <v>19</v>
-      </c>
-      <c r="T2" s="6" t="str">
-        <f t="shared" ref="T2:T64" si="2">IF(S2&lt;=7, "unlikely to be abnormally sleepy.", IF(S2&lt;=9, "average amount of daytime sleepiness.", IF(S2&lt;=15, "may be excessively sleepy", "excessively sleepy.")))</f>
-        <v>excessively sleepy.</v>
+      <c r="S2" s="16">
+        <v>11</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1365,12 +1382,11 @@
       <c r="R3" s="10">
         <v>13</v>
       </c>
-      <c r="S3" s="10">
-        <v>8</v>
-      </c>
-      <c r="T3" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>average amount of daytime sleepiness.</v>
+      <c r="S3" s="16">
+        <v>0</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1430,12 +1446,11 @@
       <c r="R4" s="6">
         <v>12</v>
       </c>
-      <c r="S4" s="6">
-        <v>8</v>
-      </c>
-      <c r="T4" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>average amount of daytime sleepiness.</v>
+      <c r="S4" s="16">
+        <v>0</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1495,12 +1510,11 @@
       <c r="R5" s="10">
         <v>15</v>
       </c>
-      <c r="S5" s="10">
-        <v>15</v>
-      </c>
-      <c r="T5" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="S5" s="16">
+        <v>7</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1560,12 +1574,11 @@
       <c r="R6" s="6">
         <v>15</v>
       </c>
-      <c r="S6" s="6">
-        <v>17</v>
-      </c>
-      <c r="T6" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S6" s="16">
+        <v>9</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1625,12 +1638,11 @@
       <c r="R7" s="10">
         <v>22</v>
       </c>
-      <c r="S7" s="10">
-        <v>25</v>
-      </c>
-      <c r="T7" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S7" s="16">
+        <v>17</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1690,12 +1702,11 @@
       <c r="R8" s="6">
         <v>14</v>
       </c>
-      <c r="S8" s="6">
-        <v>19</v>
-      </c>
-      <c r="T8" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S8" s="16">
+        <v>11</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1753,12 +1764,11 @@
       <c r="R9" s="10">
         <v>17</v>
       </c>
-      <c r="S9" s="10">
-        <v>12</v>
-      </c>
-      <c r="T9" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="S9" s="16">
+        <v>4</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1818,12 +1828,11 @@
       <c r="R10" s="6">
         <v>12</v>
       </c>
-      <c r="S10" s="6">
-        <v>17</v>
-      </c>
-      <c r="T10" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S10" s="16">
+        <v>9</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1881,12 +1890,11 @@
       <c r="R11" s="10">
         <v>15</v>
       </c>
-      <c r="S11" s="10">
-        <v>18</v>
-      </c>
-      <c r="T11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S11" s="16">
+        <v>10</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1946,12 +1954,11 @@
       <c r="R12" s="6">
         <v>17</v>
       </c>
-      <c r="S12" s="6">
-        <v>17</v>
-      </c>
-      <c r="T12" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S12" s="16">
+        <v>9</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2009,12 +2016,11 @@
       <c r="R13" s="10">
         <v>14</v>
       </c>
-      <c r="S13" s="10">
-        <v>21</v>
-      </c>
-      <c r="T13" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S13" s="16">
+        <v>13</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2074,12 +2080,11 @@
       <c r="R14" s="6">
         <v>19</v>
       </c>
-      <c r="S14" s="6">
-        <v>20</v>
-      </c>
-      <c r="T14" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S14" s="16">
+        <v>12</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2135,12 +2140,11 @@
       <c r="R15" s="10">
         <v>18</v>
       </c>
-      <c r="S15" s="10">
-        <v>24</v>
-      </c>
-      <c r="T15" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S15" s="16">
+        <v>16</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2200,12 +2204,11 @@
       <c r="R16" s="6">
         <v>13</v>
       </c>
-      <c r="S16" s="6">
-        <v>18</v>
-      </c>
-      <c r="T16" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S16" s="16">
+        <v>10</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2265,12 +2268,11 @@
       <c r="R17" s="10">
         <v>12</v>
       </c>
-      <c r="S17" s="10">
-        <v>21</v>
-      </c>
-      <c r="T17" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S17" s="16">
+        <v>13</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2328,12 +2330,11 @@
       <c r="R18" s="6">
         <v>18</v>
       </c>
-      <c r="S18" s="6">
-        <v>9</v>
-      </c>
-      <c r="T18" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>average amount of daytime sleepiness.</v>
+      <c r="S18" s="16">
+        <v>1</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2393,12 +2394,11 @@
       <c r="R19" s="10">
         <v>19</v>
       </c>
-      <c r="S19" s="10">
-        <v>16</v>
-      </c>
-      <c r="T19" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S19" s="16">
+        <v>8</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2458,12 +2458,11 @@
       <c r="R20" s="6">
         <v>18</v>
       </c>
-      <c r="S20" s="6">
-        <v>10</v>
-      </c>
-      <c r="T20" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="S20" s="16">
+        <v>2</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2523,12 +2522,11 @@
       <c r="R21" s="10">
         <v>17</v>
       </c>
-      <c r="S21" s="10">
-        <v>19</v>
-      </c>
-      <c r="T21" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S21" s="16">
+        <v>11</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2586,12 +2584,11 @@
       <c r="R22" s="6">
         <v>17</v>
       </c>
-      <c r="S22" s="6">
-        <v>21</v>
-      </c>
-      <c r="T22" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S22" s="16">
+        <v>13</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2651,12 +2648,11 @@
       <c r="R23" s="10">
         <v>22</v>
       </c>
-      <c r="S23" s="10">
-        <v>9</v>
-      </c>
-      <c r="T23" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>average amount of daytime sleepiness.</v>
+      <c r="S23" s="16">
+        <v>1</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2716,12 +2712,11 @@
       <c r="R24" s="6">
         <v>17</v>
       </c>
-      <c r="S24" s="6">
-        <v>19</v>
-      </c>
-      <c r="T24" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S24" s="16">
+        <v>11</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2781,12 +2776,11 @@
       <c r="R25" s="10">
         <v>20</v>
       </c>
-      <c r="S25" s="10">
-        <v>21</v>
-      </c>
-      <c r="T25" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S25" s="16">
+        <v>13</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2846,12 +2840,11 @@
       <c r="R26" s="6">
         <v>18</v>
       </c>
-      <c r="S26" s="6">
-        <v>15</v>
-      </c>
-      <c r="T26" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="S26" s="16">
+        <v>7</v>
+      </c>
+      <c r="T26" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2911,12 +2904,11 @@
       <c r="R27" s="10">
         <v>12</v>
       </c>
-      <c r="S27" s="10">
-        <v>17</v>
-      </c>
-      <c r="T27" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S27" s="16">
+        <v>9</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2976,12 +2968,11 @@
       <c r="R28" s="6">
         <v>17</v>
       </c>
-      <c r="S28" s="6">
-        <v>17</v>
-      </c>
-      <c r="T28" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S28" s="16">
+        <v>9</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3041,12 +3032,11 @@
       <c r="R29" s="10">
         <v>21</v>
       </c>
-      <c r="S29" s="10">
-        <v>22</v>
-      </c>
-      <c r="T29" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S29" s="16">
+        <v>14</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3104,12 +3094,11 @@
       <c r="R30" s="6">
         <v>14</v>
       </c>
-      <c r="S30" s="6">
-        <v>12</v>
-      </c>
-      <c r="T30" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="S30" s="16">
+        <v>4</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3167,12 +3156,11 @@
       <c r="R31" s="10">
         <v>17</v>
       </c>
-      <c r="S31" s="10">
-        <v>11</v>
-      </c>
-      <c r="T31" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="S31" s="16">
+        <v>3</v>
+      </c>
+      <c r="T31" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3232,12 +3220,11 @@
       <c r="R32" s="6">
         <v>15</v>
       </c>
-      <c r="S32" s="6">
-        <v>18</v>
-      </c>
-      <c r="T32" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S32" s="16">
+        <v>10</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3297,12 +3284,11 @@
       <c r="R33" s="10">
         <v>14</v>
       </c>
-      <c r="S33" s="10">
-        <v>19</v>
-      </c>
-      <c r="T33" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>excessively sleepy.</v>
+      <c r="S33" s="16">
+        <v>11</v>
+      </c>
+      <c r="T33" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3358,12 +3344,11 @@
       <c r="R34" s="6">
         <v>3</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34" s="16">
         <v>4</v>
       </c>
-      <c r="T34" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T34" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3417,12 +3402,11 @@
       <c r="R35" s="10">
         <v>11</v>
       </c>
-      <c r="S35" s="10">
+      <c r="S35" s="16">
         <v>7</v>
       </c>
-      <c r="T35" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T35" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3476,12 +3460,11 @@
       <c r="R36" s="6">
         <v>10</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S36" s="16">
         <v>12</v>
       </c>
-      <c r="T36" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="T36" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3535,12 +3518,11 @@
       <c r="R37" s="10">
         <v>13</v>
       </c>
-      <c r="S37" s="10">
+      <c r="S37" s="16">
         <v>4</v>
       </c>
-      <c r="T37" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T37" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3594,12 +3576,11 @@
       <c r="R38" s="6">
         <v>1</v>
       </c>
-      <c r="S38" s="6">
+      <c r="S38" s="16">
         <v>1</v>
       </c>
-      <c r="T38" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T38" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3653,12 +3634,11 @@
       <c r="R39" s="10">
         <v>3</v>
       </c>
-      <c r="S39" s="10">
+      <c r="S39" s="16">
         <v>9</v>
       </c>
-      <c r="T39" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>average amount of daytime sleepiness.</v>
+      <c r="T39" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3714,12 +3694,11 @@
       <c r="R40" s="6">
         <v>1</v>
       </c>
-      <c r="S40" s="6">
+      <c r="S40" s="16">
         <v>9</v>
       </c>
-      <c r="T40" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>average amount of daytime sleepiness.</v>
+      <c r="T40" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3773,12 +3752,11 @@
       <c r="R41" s="10">
         <v>13</v>
       </c>
-      <c r="S41" s="10">
+      <c r="S41" s="16">
         <v>2</v>
       </c>
-      <c r="T41" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T41" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3832,12 +3810,11 @@
       <c r="R42" s="6">
         <v>12</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="16">
         <v>7</v>
       </c>
-      <c r="T42" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T42" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3891,12 +3868,11 @@
       <c r="R43" s="10">
         <v>13</v>
       </c>
-      <c r="S43" s="10">
+      <c r="S43" s="16">
         <v>9</v>
       </c>
-      <c r="T43" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>average amount of daytime sleepiness.</v>
+      <c r="T43" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3950,12 +3926,11 @@
       <c r="R44" s="6">
         <v>5</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S44" s="16">
         <v>6</v>
       </c>
-      <c r="T44" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T44" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4009,12 +3984,11 @@
       <c r="R45" s="10">
         <v>5</v>
       </c>
-      <c r="S45" s="10">
+      <c r="S45" s="16">
         <v>2</v>
       </c>
-      <c r="T45" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T45" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4068,12 +4042,11 @@
       <c r="R46" s="6">
         <v>14</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="16">
         <v>10</v>
       </c>
-      <c r="T46" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="T46" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4127,12 +4100,11 @@
       <c r="R47" s="10">
         <v>6</v>
       </c>
-      <c r="S47" s="10">
+      <c r="S47" s="16">
         <v>8</v>
       </c>
-      <c r="T47" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>average amount of daytime sleepiness.</v>
+      <c r="T47" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4186,12 +4158,11 @@
       <c r="R48" s="6">
         <v>16</v>
       </c>
-      <c r="S48" s="6">
+      <c r="S48" s="16">
         <v>9</v>
       </c>
-      <c r="T48" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>average amount of daytime sleepiness.</v>
+      <c r="T48" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4245,12 +4216,11 @@
       <c r="R49" s="10">
         <v>5</v>
       </c>
-      <c r="S49" s="10">
+      <c r="S49" s="16">
         <v>7</v>
       </c>
-      <c r="T49" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T49" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4304,12 +4274,11 @@
       <c r="R50" s="6">
         <v>9</v>
       </c>
-      <c r="S50" s="6">
+      <c r="S50" s="16">
         <v>11</v>
       </c>
-      <c r="T50" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="T50" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4363,12 +4332,11 @@
       <c r="R51" s="10">
         <v>8</v>
       </c>
-      <c r="S51" s="10">
+      <c r="S51" s="16">
         <v>4</v>
       </c>
-      <c r="T51" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T51" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4422,12 +4390,11 @@
       <c r="R52" s="6">
         <v>8</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S52" s="16">
         <v>13</v>
       </c>
-      <c r="T52" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="T52" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4481,12 +4448,11 @@
       <c r="R53" s="10">
         <v>8</v>
       </c>
-      <c r="S53" s="10">
+      <c r="S53" s="16">
         <v>1</v>
       </c>
-      <c r="T53" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T53" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4540,12 +4506,11 @@
       <c r="R54" s="6">
         <v>8</v>
       </c>
-      <c r="S54" s="6">
+      <c r="S54" s="16">
         <v>4</v>
       </c>
-      <c r="T54" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T54" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4599,12 +4564,11 @@
       <c r="R55" s="10">
         <v>9</v>
       </c>
-      <c r="S55" s="10">
+      <c r="S55" s="16">
         <v>13</v>
       </c>
-      <c r="T55" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="T55" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4658,12 +4622,11 @@
       <c r="R56" s="6">
         <v>10</v>
       </c>
-      <c r="S56" s="6">
+      <c r="S56" s="16">
         <v>10</v>
       </c>
-      <c r="T56" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="T56" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4717,12 +4680,11 @@
       <c r="R57" s="10">
         <v>4</v>
       </c>
-      <c r="S57" s="10">
+      <c r="S57" s="16">
         <v>5</v>
       </c>
-      <c r="T57" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T57" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4776,12 +4738,11 @@
       <c r="R58" s="6">
         <v>7</v>
       </c>
-      <c r="S58" s="6">
+      <c r="S58" s="16">
         <v>8</v>
       </c>
-      <c r="T58" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>average amount of daytime sleepiness.</v>
+      <c r="T58" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4835,12 +4796,11 @@
       <c r="R59" s="10">
         <v>6</v>
       </c>
-      <c r="S59" s="10">
+      <c r="S59" s="16">
         <v>8</v>
       </c>
-      <c r="T59" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>average amount of daytime sleepiness.</v>
+      <c r="T59" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4894,12 +4854,11 @@
       <c r="R60" s="6">
         <v>2</v>
       </c>
-      <c r="S60" s="6">
+      <c r="S60" s="16">
         <v>2</v>
       </c>
-      <c r="T60" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T60" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -4953,12 +4912,11 @@
       <c r="R61" s="10">
         <v>12</v>
       </c>
-      <c r="S61" s="10">
+      <c r="S61" s="16">
         <v>10</v>
       </c>
-      <c r="T61" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="T61" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -5012,12 +4970,11 @@
       <c r="R62" s="6">
         <v>9</v>
       </c>
-      <c r="S62" s="6">
+      <c r="S62" s="16">
         <v>3</v>
       </c>
-      <c r="T62" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T62" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -5071,12 +5028,11 @@
       <c r="R63" s="10">
         <v>2</v>
       </c>
-      <c r="S63" s="10">
+      <c r="S63" s="16">
         <v>6</v>
       </c>
-      <c r="T63" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>unlikely to be abnormally sleepy.</v>
+      <c r="T63" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -5130,12 +5086,11 @@
       <c r="R64" s="6">
         <v>10</v>
       </c>
-      <c r="S64" s="6">
+      <c r="S64" s="16">
         <v>11</v>
       </c>
-      <c r="T64" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>may be excessively sleepy</v>
+      <c r="T64" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -26039,34 +25994,17 @@
       <c r="T1014" s="14"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A65:T998 A2:R64">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>#REF!=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I2:J33">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$I2=$J2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$I2&lt;&gt;$J2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T64">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>$P2=TRUE</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>$N2="unlikely to be abnormally sleepy."</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$N2="average amount of daytime sleepiness."</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>$N2="may be excessively sleepy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>$N2="excessively sleepy."</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:T998">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">

--- a/tables/SART-Ppt-Demo-Questionnaire-Scores.xlsx
+++ b/tables/SART-Ppt-Demo-Questionnaire-Scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elaine/Desktop/Git_Studies/MWMB_ADHD/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA154A8-0587-1446-B84B-B17F17BF0EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C073B4-F676-F841-9B76-D565940CE3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="114">
   <si>
     <t>SubID</t>
   </si>
@@ -349,12 +349,39 @@
   <si>
     <t>excessively sleepy.</t>
   </si>
+  <si>
+    <t>MEQ</t>
+  </si>
+  <si>
+    <t>AUDIT</t>
+  </si>
+  <si>
+    <t>DUDIT</t>
+  </si>
+  <si>
+    <t>IPI</t>
+  </si>
+  <si>
+    <t>WURS</t>
+  </si>
+  <si>
+    <t>IDASDysphoria</t>
+  </si>
+  <si>
+    <t>IDASWellBeing</t>
+  </si>
+  <si>
+    <t>IDASPanic</t>
+  </si>
+  <si>
+    <t>IDASDepression</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -380,6 +407,23 @@
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -552,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -600,57 +644,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDD7E6B"/>
-          <bgColor rgb="FFDD7E6B"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -894,49 +895,49 @@
   </dxfs>
   <tableStyles count="9">
     <tableStyle name="Summary-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="firstRowStripe" dxfId="33"/>
-      <tableStyleElement type="secondRowStripe" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
     </tableStyle>
     <tableStyle name="Summary (All ppts)-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
     <tableStyle name="DIVA-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
     </tableStyle>
     <tableStyle name="Epworth-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
     <tableStyle name="Demo-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
     <tableStyle name="CAARS-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
-      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
     <tableStyle name="CAARS-Inconsistency-Index-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
     <tableStyle name="ASRSv1.1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
     <tableStyle name="ASRS5-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -951,8 +952,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1_3" displayName="Table1_3" ref="A1:T1014">
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1_3" displayName="Table1_3" ref="A1:AC1014">
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SubID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Group"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sex"/>
@@ -973,6 +974,15 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ASRS-5"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Epworth"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Epworth_Rating"/>
+    <tableColumn id="21" xr3:uid="{0184094C-3CD5-B34D-9B8C-98718D8EB18B}" name="MEQ"/>
+    <tableColumn id="22" xr3:uid="{38616FCE-4A4A-A14F-AE92-0B9B913351A0}" name="AUDIT"/>
+    <tableColumn id="23" xr3:uid="{6F2577C3-A47D-7749-BC4D-474B9F6231EE}" name="DUDIT"/>
+    <tableColumn id="24" xr3:uid="{BBB35D51-8AB0-2041-8A5B-3217BB066B26}" name="IPI"/>
+    <tableColumn id="25" xr3:uid="{FD198D4D-14A9-9347-9B44-590701644378}" name="WURS"/>
+    <tableColumn id="26" xr3:uid="{F25D00CC-421D-424D-AB00-91F7D9AF7258}" name="IDASDysphoria"/>
+    <tableColumn id="27" xr3:uid="{04D39213-870A-4440-9E74-C968E50C87A9}" name="IDASWellBeing"/>
+    <tableColumn id="28" xr3:uid="{6C269A9D-1FC0-4A43-9681-68749DD1F07A}" name="IDASPanic"/>
+    <tableColumn id="29" xr3:uid="{4700185B-D99A-9742-9404-28C383381F40}" name="IDASDepression"/>
   </tableColumns>
   <tableStyleInfo name="Summary-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1179,13 +1189,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T1014"/>
+  <dimension ref="A1:AC1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1201,7 +1211,7 @@
     <col min="24" max="24" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,8 +1272,35 @@
       <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1326,8 +1363,35 @@
       <c r="T2" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U2" s="18">
+        <v>32</v>
+      </c>
+      <c r="V2" s="19">
+        <v>2</v>
+      </c>
+      <c r="W2" s="19">
+        <v>0</v>
+      </c>
+      <c r="X2" s="19">
+        <v>89</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -1388,8 +1452,35 @@
       <c r="T3" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U3" s="18">
+        <v>29</v>
+      </c>
+      <c r="V3" s="19">
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
+        <v>0</v>
+      </c>
+      <c r="X3" s="19">
+        <v>83</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>17</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
@@ -1452,8 +1543,35 @@
       <c r="T4" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U4" s="18">
+        <v>42</v>
+      </c>
+      <c r="V4" s="19">
+        <v>1</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0</v>
+      </c>
+      <c r="X4" s="19">
+        <v>110</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>88</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
@@ -1516,8 +1634,35 @@
       <c r="T5" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U5" s="18">
+        <v>40</v>
+      </c>
+      <c r="V5" s="19">
+        <v>3</v>
+      </c>
+      <c r="W5" s="19">
+        <v>0</v>
+      </c>
+      <c r="X5" s="19">
+        <v>85</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>81</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>24</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1580,8 +1725,35 @@
       <c r="T6" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U6" s="18">
+        <v>35</v>
+      </c>
+      <c r="V6" s="19">
+        <v>0</v>
+      </c>
+      <c r="W6" s="19">
+        <v>0</v>
+      </c>
+      <c r="X6" s="19">
+        <v>82</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>16</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
@@ -1644,8 +1816,35 @@
       <c r="T7" s="16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U7" s="18">
+        <v>34</v>
+      </c>
+      <c r="V7" s="19">
+        <v>1</v>
+      </c>
+      <c r="W7" s="19">
+        <v>0</v>
+      </c>
+      <c r="X7" s="19">
+        <v>102</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>81</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>33</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1708,8 +1907,35 @@
       <c r="T8" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U8" s="18">
+        <v>42</v>
+      </c>
+      <c r="V8" s="19">
+        <v>4</v>
+      </c>
+      <c r="W8" s="19">
+        <v>0</v>
+      </c>
+      <c r="X8" s="19">
+        <v>56</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>42</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
@@ -1770,8 +1996,35 @@
       <c r="T9" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U9" s="18">
+        <v>37</v>
+      </c>
+      <c r="V9" s="19">
+        <v>7</v>
+      </c>
+      <c r="W9" s="19">
+        <v>3</v>
+      </c>
+      <c r="X9" s="19">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>17</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>14</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1834,8 +2087,35 @@
       <c r="T10" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U10" s="18">
+        <v>54</v>
+      </c>
+      <c r="V10" s="19">
+        <v>1</v>
+      </c>
+      <c r="W10" s="19">
+        <v>0</v>
+      </c>
+      <c r="X10" s="19">
+        <v>71</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>65</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>27</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>19</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
@@ -1896,8 +2176,35 @@
       <c r="T11" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U11" s="18">
+        <v>39</v>
+      </c>
+      <c r="V11" s="19">
+        <v>5</v>
+      </c>
+      <c r="W11" s="19">
+        <v>0</v>
+      </c>
+      <c r="X11" s="19">
+        <v>70</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>54</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>25</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>21</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>14</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -1960,8 +2267,35 @@
       <c r="T12" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U12" s="18">
+        <v>45</v>
+      </c>
+      <c r="V12" s="19">
+        <v>4</v>
+      </c>
+      <c r="W12" s="19">
+        <v>12</v>
+      </c>
+      <c r="X12" s="19">
+        <v>94</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>59</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>35</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>40</v>
       </c>
@@ -2022,8 +2356,35 @@
       <c r="T13" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U13" s="18">
+        <v>41</v>
+      </c>
+      <c r="V13" s="19">
+        <v>3</v>
+      </c>
+      <c r="W13" s="19">
+        <v>0</v>
+      </c>
+      <c r="X13" s="19">
+        <v>104</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>37</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>17</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>17</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>11</v>
+      </c>
+      <c r="AC13" s="16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
@@ -2086,8 +2447,35 @@
       <c r="T14" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U14" s="18">
+        <v>69</v>
+      </c>
+      <c r="V14" s="19">
+        <v>10</v>
+      </c>
+      <c r="W14" s="19">
+        <v>7</v>
+      </c>
+      <c r="X14" s="19">
+        <v>83</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>57</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>37</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>25</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>17</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
@@ -2146,8 +2534,35 @@
       <c r="T15" s="16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U15" s="18">
+        <v>31</v>
+      </c>
+      <c r="V15" s="19">
+        <v>5</v>
+      </c>
+      <c r="W15" s="19">
+        <v>0</v>
+      </c>
+      <c r="X15" s="19">
+        <v>94</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>63</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>33</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>20</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>22</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -2210,8 +2625,35 @@
       <c r="T16" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U16" s="18">
+        <v>42</v>
+      </c>
+      <c r="V16" s="19">
+        <v>5</v>
+      </c>
+      <c r="W16" s="19">
+        <v>4</v>
+      </c>
+      <c r="X16" s="19">
+        <v>76</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>27</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>18</v>
+      </c>
+      <c r="AA16" s="16">
+        <v>19</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC16" s="16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -2274,8 +2716,35 @@
       <c r="T17" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U17" s="18">
+        <v>44</v>
+      </c>
+      <c r="V17" s="19">
+        <v>5</v>
+      </c>
+      <c r="W17" s="19">
+        <v>0</v>
+      </c>
+      <c r="X17" s="19">
+        <v>75</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>11</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>21</v>
+      </c>
+      <c r="AA17" s="16">
+        <v>27</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC17" s="16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -2336,8 +2805,35 @@
       <c r="T18" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U18" s="18">
+        <v>32</v>
+      </c>
+      <c r="V18" s="19">
+        <v>0</v>
+      </c>
+      <c r="W18" s="19">
+        <v>0</v>
+      </c>
+      <c r="X18" s="19">
+        <v>99</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>54</v>
+      </c>
+      <c r="Z18" s="16">
+        <v>15</v>
+      </c>
+      <c r="AA18" s="16">
+        <v>34</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>48</v>
       </c>
@@ -2400,8 +2896,35 @@
       <c r="T19" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U19" s="18">
+        <v>38</v>
+      </c>
+      <c r="V19" s="19">
+        <v>0</v>
+      </c>
+      <c r="W19" s="19">
+        <v>0</v>
+      </c>
+      <c r="X19" s="19">
+        <v>97</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>73</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>27</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>15</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -2464,8 +2987,35 @@
       <c r="T20" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U20" s="18">
+        <v>51</v>
+      </c>
+      <c r="V20" s="19">
+        <v>8</v>
+      </c>
+      <c r="W20" s="19">
+        <v>4</v>
+      </c>
+      <c r="X20" s="19">
+        <v>88</v>
+      </c>
+      <c r="Y20" s="16">
+        <v>58</v>
+      </c>
+      <c r="Z20" s="16">
+        <v>21</v>
+      </c>
+      <c r="AA20" s="16">
+        <v>28</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>14</v>
+      </c>
+      <c r="AC20" s="16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -2528,8 +3078,35 @@
       <c r="T21" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U21" s="18">
+        <v>54</v>
+      </c>
+      <c r="V21" s="19">
+        <v>4</v>
+      </c>
+      <c r="W21" s="19">
+        <v>0</v>
+      </c>
+      <c r="X21" s="19">
+        <v>68</v>
+      </c>
+      <c r="Y21" s="16">
+        <v>53</v>
+      </c>
+      <c r="Z21" s="16">
+        <v>23</v>
+      </c>
+      <c r="AA21" s="16">
+        <v>30</v>
+      </c>
+      <c r="AB21" s="16">
+        <v>17</v>
+      </c>
+      <c r="AC21" s="16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -2590,8 +3167,35 @@
       <c r="T22" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U22" s="18">
+        <v>38</v>
+      </c>
+      <c r="V22" s="19">
+        <v>10</v>
+      </c>
+      <c r="W22" s="19">
+        <v>0</v>
+      </c>
+      <c r="X22" s="19">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="16">
+        <v>58</v>
+      </c>
+      <c r="Z22" s="16">
+        <v>26</v>
+      </c>
+      <c r="AA22" s="16">
+        <v>26</v>
+      </c>
+      <c r="AB22" s="16">
+        <v>16</v>
+      </c>
+      <c r="AC22" s="16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>54</v>
       </c>
@@ -2654,8 +3258,35 @@
       <c r="T23" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U23" s="18">
+        <v>39</v>
+      </c>
+      <c r="V23" s="19">
+        <v>2</v>
+      </c>
+      <c r="W23" s="19">
+        <v>0</v>
+      </c>
+      <c r="X23" s="19">
+        <v>86</v>
+      </c>
+      <c r="Y23" s="16">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="16">
+        <v>29</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>20</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>15</v>
+      </c>
+      <c r="AC23" s="16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
@@ -2718,8 +3349,35 @@
       <c r="T24" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U24" s="18">
+        <v>43</v>
+      </c>
+      <c r="V24" s="19">
+        <v>12</v>
+      </c>
+      <c r="W24" s="19">
+        <v>0</v>
+      </c>
+      <c r="X24" s="19">
+        <v>68</v>
+      </c>
+      <c r="Y24" s="16">
+        <v>56</v>
+      </c>
+      <c r="Z24" s="16">
+        <v>34</v>
+      </c>
+      <c r="AA24" s="16">
+        <v>18</v>
+      </c>
+      <c r="AB24" s="16">
+        <v>16</v>
+      </c>
+      <c r="AC24" s="16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>58</v>
       </c>
@@ -2782,8 +3440,35 @@
       <c r="T25" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U25" s="18">
+        <v>40</v>
+      </c>
+      <c r="V25" s="19">
+        <v>1</v>
+      </c>
+      <c r="W25" s="19">
+        <v>3</v>
+      </c>
+      <c r="X25" s="19">
+        <v>74</v>
+      </c>
+      <c r="Y25" s="16">
+        <v>69</v>
+      </c>
+      <c r="Z25" s="16">
+        <v>29</v>
+      </c>
+      <c r="AA25" s="16">
+        <v>18</v>
+      </c>
+      <c r="AB25" s="16">
+        <v>18</v>
+      </c>
+      <c r="AC25" s="16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>59</v>
       </c>
@@ -2846,8 +3531,35 @@
       <c r="T26" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U26" s="18">
+        <v>35</v>
+      </c>
+      <c r="V26" s="19">
+        <v>12</v>
+      </c>
+      <c r="W26" s="19">
+        <v>0</v>
+      </c>
+      <c r="X26" s="19">
+        <v>97</v>
+      </c>
+      <c r="Y26" s="16">
+        <v>45</v>
+      </c>
+      <c r="Z26" s="16">
+        <v>22</v>
+      </c>
+      <c r="AA26" s="16">
+        <v>24</v>
+      </c>
+      <c r="AB26" s="16">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>60</v>
       </c>
@@ -2910,8 +3622,35 @@
       <c r="T27" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U27" s="18">
+        <v>45</v>
+      </c>
+      <c r="V27" s="19">
+        <v>5</v>
+      </c>
+      <c r="W27" s="19">
+        <v>4</v>
+      </c>
+      <c r="X27" s="19">
+        <v>74</v>
+      </c>
+      <c r="Y27" s="16">
+        <v>26</v>
+      </c>
+      <c r="Z27" s="16">
+        <v>39</v>
+      </c>
+      <c r="AA27" s="16">
+        <v>13</v>
+      </c>
+      <c r="AB27" s="16">
+        <v>13</v>
+      </c>
+      <c r="AC27" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>61</v>
       </c>
@@ -2974,8 +3713,35 @@
       <c r="T28" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U28" s="18">
+        <v>30</v>
+      </c>
+      <c r="V28" s="19">
+        <v>7</v>
+      </c>
+      <c r="W28" s="19">
+        <v>2</v>
+      </c>
+      <c r="X28" s="19">
+        <v>73</v>
+      </c>
+      <c r="Y28" s="16">
+        <v>54</v>
+      </c>
+      <c r="Z28" s="16">
+        <v>45</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>8</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>31</v>
+      </c>
+      <c r="AC28" s="16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -3038,8 +3804,35 @@
       <c r="T29" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U29" s="18">
+        <v>31</v>
+      </c>
+      <c r="V29" s="19">
+        <v>5</v>
+      </c>
+      <c r="W29" s="19">
+        <v>10</v>
+      </c>
+      <c r="X29" s="19">
+        <v>82</v>
+      </c>
+      <c r="Y29" s="16">
+        <v>54</v>
+      </c>
+      <c r="Z29" s="16">
+        <v>35</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>19</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>20</v>
+      </c>
+      <c r="AC29" s="16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
@@ -3100,8 +3893,35 @@
       <c r="T30" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U30" s="18">
+        <v>36</v>
+      </c>
+      <c r="V30" s="19">
+        <v>2</v>
+      </c>
+      <c r="W30" s="19">
+        <v>1</v>
+      </c>
+      <c r="X30" s="19">
+        <v>60</v>
+      </c>
+      <c r="Y30" s="16">
+        <v>49</v>
+      </c>
+      <c r="Z30" s="16">
+        <v>22</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>15</v>
+      </c>
+      <c r="AB30" s="16">
+        <v>12</v>
+      </c>
+      <c r="AC30" s="16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3982,35 @@
       <c r="T31" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U31" s="18">
+        <v>58</v>
+      </c>
+      <c r="V31" s="19">
+        <v>6</v>
+      </c>
+      <c r="W31" s="19">
+        <v>5</v>
+      </c>
+      <c r="X31" s="19">
+        <v>86</v>
+      </c>
+      <c r="Y31" s="16">
+        <v>41</v>
+      </c>
+      <c r="Z31" s="16">
+        <v>25</v>
+      </c>
+      <c r="AA31" s="16">
+        <v>24</v>
+      </c>
+      <c r="AB31" s="16">
+        <v>17</v>
+      </c>
+      <c r="AC31" s="16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -3226,8 +4073,35 @@
       <c r="T32" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U32" s="18">
+        <v>38</v>
+      </c>
+      <c r="V32" s="19">
+        <v>2</v>
+      </c>
+      <c r="W32" s="19">
+        <v>0</v>
+      </c>
+      <c r="X32" s="19">
+        <v>89</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>54</v>
+      </c>
+      <c r="Z32" s="16">
+        <v>26</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>24</v>
+      </c>
+      <c r="AB32" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC32" s="16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>67</v>
       </c>
@@ -3290,8 +4164,35 @@
       <c r="T33" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U33" s="18">
+        <v>43</v>
+      </c>
+      <c r="V33" s="19">
+        <v>7</v>
+      </c>
+      <c r="W33" s="19">
+        <v>5</v>
+      </c>
+      <c r="X33" s="19">
+        <v>75</v>
+      </c>
+      <c r="Y33" s="16">
+        <v>61</v>
+      </c>
+      <c r="Z33" s="16">
+        <v>40</v>
+      </c>
+      <c r="AA33" s="16">
+        <v>9</v>
+      </c>
+      <c r="AB33" s="16">
+        <v>12</v>
+      </c>
+      <c r="AC33" s="16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>68</v>
       </c>
@@ -3350,8 +4251,32 @@
       <c r="T34" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U34" s="18">
+        <v>57</v>
+      </c>
+      <c r="V34" s="19">
+        <v>5</v>
+      </c>
+      <c r="W34" s="19">
+        <v>0</v>
+      </c>
+      <c r="X34" s="19">
+        <v>44</v>
+      </c>
+      <c r="Z34" s="16">
+        <v>11</v>
+      </c>
+      <c r="AA34" s="16">
+        <v>27</v>
+      </c>
+      <c r="AB34" s="16">
+        <v>9</v>
+      </c>
+      <c r="AC34" s="16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>71</v>
       </c>
@@ -3408,8 +4333,32 @@
       <c r="T35" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U35" s="18">
+        <v>48</v>
+      </c>
+      <c r="V35" s="19">
+        <v>4</v>
+      </c>
+      <c r="W35" s="19">
+        <v>0</v>
+      </c>
+      <c r="X35" s="19">
+        <v>39</v>
+      </c>
+      <c r="Z35" s="16">
+        <v>27</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>16</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC35" s="16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>72</v>
       </c>
@@ -3466,8 +4415,32 @@
       <c r="T36" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U36" s="18">
+        <v>44</v>
+      </c>
+      <c r="V36" s="19">
+        <v>1</v>
+      </c>
+      <c r="W36" s="19">
+        <v>0</v>
+      </c>
+      <c r="X36" s="19">
+        <v>57</v>
+      </c>
+      <c r="Z36" s="16">
+        <v>21</v>
+      </c>
+      <c r="AA36" s="16">
+        <v>12</v>
+      </c>
+      <c r="AB36" s="16">
+        <v>11</v>
+      </c>
+      <c r="AC36" s="16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>73</v>
       </c>
@@ -3524,8 +4497,32 @@
       <c r="T37" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U37" s="18">
+        <v>44</v>
+      </c>
+      <c r="V37" s="19">
+        <v>5</v>
+      </c>
+      <c r="W37" s="19">
+        <v>0</v>
+      </c>
+      <c r="X37" s="19">
+        <v>79</v>
+      </c>
+      <c r="Z37" s="16">
+        <v>25</v>
+      </c>
+      <c r="AA37" s="16">
+        <v>33</v>
+      </c>
+      <c r="AB37" s="16">
+        <v>9</v>
+      </c>
+      <c r="AC37" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>74</v>
       </c>
@@ -3582,8 +4579,32 @@
       <c r="T38" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U38" s="18">
+        <v>42</v>
+      </c>
+      <c r="V38" s="19">
+        <v>0</v>
+      </c>
+      <c r="W38" s="19">
+        <v>0</v>
+      </c>
+      <c r="X38" s="19">
+        <v>32</v>
+      </c>
+      <c r="Z38" s="16">
+        <v>10</v>
+      </c>
+      <c r="AA38" s="16">
+        <v>32</v>
+      </c>
+      <c r="AB38" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC38" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>75</v>
       </c>
@@ -3640,8 +4661,32 @@
       <c r="T39" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U39" s="18">
+        <v>43</v>
+      </c>
+      <c r="V39" s="19">
+        <v>2</v>
+      </c>
+      <c r="W39" s="19">
+        <v>0</v>
+      </c>
+      <c r="X39" s="19">
+        <v>47</v>
+      </c>
+      <c r="Z39" s="16">
+        <v>12</v>
+      </c>
+      <c r="AA39" s="16">
+        <v>25</v>
+      </c>
+      <c r="AB39" s="16">
+        <v>9</v>
+      </c>
+      <c r="AC39" s="16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>76</v>
       </c>
@@ -3700,8 +4745,32 @@
       <c r="T40" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U40" s="18">
+        <v>29</v>
+      </c>
+      <c r="V40" s="19">
+        <v>10</v>
+      </c>
+      <c r="W40" s="19">
+        <v>2</v>
+      </c>
+      <c r="X40" s="19">
+        <v>102</v>
+      </c>
+      <c r="Z40" s="16">
+        <v>11</v>
+      </c>
+      <c r="AA40" s="16">
+        <v>34</v>
+      </c>
+      <c r="AB40" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC40" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>77</v>
       </c>
@@ -3758,8 +4827,32 @@
       <c r="T41" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U41" s="18">
+        <v>49</v>
+      </c>
+      <c r="V41" s="19">
+        <v>3</v>
+      </c>
+      <c r="W41" s="19">
+        <v>0</v>
+      </c>
+      <c r="X41" s="19">
+        <v>24</v>
+      </c>
+      <c r="Z41" s="16">
+        <v>19</v>
+      </c>
+      <c r="AA41" s="16">
+        <v>26</v>
+      </c>
+      <c r="AB41" s="16">
+        <v>12</v>
+      </c>
+      <c r="AC41" s="16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>78</v>
       </c>
@@ -3816,8 +4909,32 @@
       <c r="T42" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U42" s="18">
+        <v>41</v>
+      </c>
+      <c r="V42" s="19">
+        <v>5</v>
+      </c>
+      <c r="W42" s="19">
+        <v>6</v>
+      </c>
+      <c r="X42" s="19">
+        <v>72</v>
+      </c>
+      <c r="Z42" s="16">
+        <v>28</v>
+      </c>
+      <c r="AA42" s="16">
+        <v>11</v>
+      </c>
+      <c r="AB42" s="16">
+        <v>14</v>
+      </c>
+      <c r="AC42" s="16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>79</v>
       </c>
@@ -3874,8 +4991,32 @@
       <c r="T43" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U43" s="18">
+        <v>40</v>
+      </c>
+      <c r="V43" s="19">
+        <v>7</v>
+      </c>
+      <c r="W43" s="19">
+        <v>11</v>
+      </c>
+      <c r="X43" s="19">
+        <v>56</v>
+      </c>
+      <c r="Z43" s="16">
+        <v>26</v>
+      </c>
+      <c r="AA43" s="16">
+        <v>18</v>
+      </c>
+      <c r="AB43" s="16">
+        <v>12</v>
+      </c>
+      <c r="AC43" s="16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>80</v>
       </c>
@@ -3932,8 +5073,32 @@
       <c r="T44" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U44" s="18">
+        <v>50</v>
+      </c>
+      <c r="V44" s="19">
+        <v>0</v>
+      </c>
+      <c r="W44" s="19">
+        <v>2</v>
+      </c>
+      <c r="X44" s="19">
+        <v>66</v>
+      </c>
+      <c r="Z44" s="16">
+        <v>16</v>
+      </c>
+      <c r="AA44" s="16">
+        <v>31</v>
+      </c>
+      <c r="AB44" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC44" s="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>81</v>
       </c>
@@ -3990,8 +5155,32 @@
       <c r="T45" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U45" s="18">
+        <v>43</v>
+      </c>
+      <c r="V45" s="19">
+        <v>1</v>
+      </c>
+      <c r="W45" s="19">
+        <v>0</v>
+      </c>
+      <c r="X45" s="19">
+        <v>78</v>
+      </c>
+      <c r="Z45" s="16">
+        <v>11</v>
+      </c>
+      <c r="AA45" s="16">
+        <v>36</v>
+      </c>
+      <c r="AB45" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC45" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>82</v>
       </c>
@@ -4048,8 +5237,32 @@
       <c r="T46" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U46" s="18">
+        <v>43</v>
+      </c>
+      <c r="V46" s="19">
+        <v>2</v>
+      </c>
+      <c r="W46" s="19">
+        <v>0</v>
+      </c>
+      <c r="X46" s="19">
+        <v>92</v>
+      </c>
+      <c r="Z46" s="16">
+        <v>22</v>
+      </c>
+      <c r="AA46" s="16">
+        <v>15</v>
+      </c>
+      <c r="AB46" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC46" s="16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>83</v>
       </c>
@@ -4106,8 +5319,32 @@
       <c r="T47" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U47" s="18">
+        <v>49</v>
+      </c>
+      <c r="V47" s="19">
+        <v>1</v>
+      </c>
+      <c r="W47" s="19">
+        <v>0</v>
+      </c>
+      <c r="X47" s="19">
+        <v>78</v>
+      </c>
+      <c r="Z47" s="16">
+        <v>14</v>
+      </c>
+      <c r="AA47" s="16">
+        <v>35</v>
+      </c>
+      <c r="AB47" s="16">
+        <v>9</v>
+      </c>
+      <c r="AC47" s="16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>84</v>
       </c>
@@ -4164,8 +5401,32 @@
       <c r="T48" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U48" s="18">
+        <v>46</v>
+      </c>
+      <c r="V48" s="19">
+        <v>2</v>
+      </c>
+      <c r="W48" s="19">
+        <v>0</v>
+      </c>
+      <c r="X48" s="19">
+        <v>75</v>
+      </c>
+      <c r="Z48" s="16">
+        <v>36</v>
+      </c>
+      <c r="AA48" s="16">
+        <v>28</v>
+      </c>
+      <c r="AB48" s="16">
+        <v>17</v>
+      </c>
+      <c r="AC48" s="16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>85</v>
       </c>
@@ -4222,8 +5483,32 @@
       <c r="T49" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U49" s="18">
+        <v>56</v>
+      </c>
+      <c r="V49" s="19">
+        <v>2</v>
+      </c>
+      <c r="W49" s="19">
+        <v>0</v>
+      </c>
+      <c r="X49" s="19">
+        <v>76</v>
+      </c>
+      <c r="Z49" s="16">
+        <v>13</v>
+      </c>
+      <c r="AA49" s="16">
+        <v>28</v>
+      </c>
+      <c r="AB49" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>86</v>
       </c>
@@ -4280,8 +5565,32 @@
       <c r="T50" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U50" s="18">
+        <v>39</v>
+      </c>
+      <c r="V50" s="19">
+        <v>0</v>
+      </c>
+      <c r="W50" s="19">
+        <v>0</v>
+      </c>
+      <c r="X50" s="19">
+        <v>66</v>
+      </c>
+      <c r="Z50" s="16">
+        <v>28</v>
+      </c>
+      <c r="AA50" s="16">
+        <v>21</v>
+      </c>
+      <c r="AB50" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC50" s="16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>87</v>
       </c>
@@ -4338,8 +5647,32 @@
       <c r="T51" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U51" s="18">
+        <v>61</v>
+      </c>
+      <c r="V51" s="19">
+        <v>0</v>
+      </c>
+      <c r="W51" s="19">
+        <v>0</v>
+      </c>
+      <c r="X51" s="19">
+        <v>39</v>
+      </c>
+      <c r="Z51" s="16">
+        <v>15</v>
+      </c>
+      <c r="AA51" s="16">
+        <v>20</v>
+      </c>
+      <c r="AB51" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC51" s="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>88</v>
       </c>
@@ -4396,8 +5729,32 @@
       <c r="T52" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U52" s="18">
+        <v>39</v>
+      </c>
+      <c r="V52" s="19">
+        <v>1</v>
+      </c>
+      <c r="W52" s="19">
+        <v>1</v>
+      </c>
+      <c r="X52" s="19">
+        <v>52</v>
+      </c>
+      <c r="Z52" s="16">
+        <v>18</v>
+      </c>
+      <c r="AA52" s="16">
+        <v>13</v>
+      </c>
+      <c r="AB52" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC52" s="16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>89</v>
       </c>
@@ -4454,8 +5811,32 @@
       <c r="T53" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U53" s="18">
+        <v>43</v>
+      </c>
+      <c r="V53" s="19">
+        <v>0</v>
+      </c>
+      <c r="W53" s="19">
+        <v>0</v>
+      </c>
+      <c r="X53" s="19">
+        <v>48</v>
+      </c>
+      <c r="Z53" s="16">
+        <v>25</v>
+      </c>
+      <c r="AA53" s="16">
+        <v>14</v>
+      </c>
+      <c r="AB53" s="16">
+        <v>12</v>
+      </c>
+      <c r="AC53" s="16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>90</v>
       </c>
@@ -4512,8 +5893,32 @@
       <c r="T54" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U54" s="18">
+        <v>53</v>
+      </c>
+      <c r="V54" s="19">
+        <v>7</v>
+      </c>
+      <c r="W54" s="19">
+        <v>0</v>
+      </c>
+      <c r="X54" s="19">
+        <v>69</v>
+      </c>
+      <c r="Z54" s="16">
+        <v>20</v>
+      </c>
+      <c r="AA54" s="16">
+        <v>25</v>
+      </c>
+      <c r="AB54" s="16">
+        <v>12</v>
+      </c>
+      <c r="AC54" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>91</v>
       </c>
@@ -4570,8 +5975,32 @@
       <c r="T55" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U55" s="18">
+        <v>42</v>
+      </c>
+      <c r="V55" s="19">
+        <v>0</v>
+      </c>
+      <c r="W55" s="19">
+        <v>0</v>
+      </c>
+      <c r="X55" s="19">
+        <v>71</v>
+      </c>
+      <c r="Z55" s="16">
+        <v>26</v>
+      </c>
+      <c r="AA55" s="16">
+        <v>19</v>
+      </c>
+      <c r="AB55" s="16">
+        <v>15</v>
+      </c>
+      <c r="AC55" s="16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>92</v>
       </c>
@@ -4628,8 +6057,32 @@
       <c r="T56" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U56" s="18">
+        <v>45</v>
+      </c>
+      <c r="V56" s="19">
+        <v>4</v>
+      </c>
+      <c r="W56" s="19">
+        <v>5</v>
+      </c>
+      <c r="X56" s="19">
+        <v>108</v>
+      </c>
+      <c r="Z56" s="16">
+        <v>19</v>
+      </c>
+      <c r="AA56" s="16">
+        <v>25</v>
+      </c>
+      <c r="AB56" s="16">
+        <v>9</v>
+      </c>
+      <c r="AC56" s="16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>93</v>
       </c>
@@ -4686,8 +6139,32 @@
       <c r="T57" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U57" s="18">
+        <v>63</v>
+      </c>
+      <c r="V57" s="19">
+        <v>0</v>
+      </c>
+      <c r="W57" s="19">
+        <v>0</v>
+      </c>
+      <c r="X57" s="19">
+        <v>52</v>
+      </c>
+      <c r="Z57" s="16">
+        <v>18</v>
+      </c>
+      <c r="AA57" s="16">
+        <v>36</v>
+      </c>
+      <c r="AB57" s="16">
+        <v>11</v>
+      </c>
+      <c r="AC57" s="16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>94</v>
       </c>
@@ -4744,8 +6221,32 @@
       <c r="T58" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U58" s="18">
+        <v>64</v>
+      </c>
+      <c r="V58" s="19">
+        <v>0</v>
+      </c>
+      <c r="W58" s="19">
+        <v>0</v>
+      </c>
+      <c r="X58" s="19">
+        <v>39</v>
+      </c>
+      <c r="Z58" s="16">
+        <v>23</v>
+      </c>
+      <c r="AA58" s="16">
+        <v>19</v>
+      </c>
+      <c r="AB58" s="16">
+        <v>13</v>
+      </c>
+      <c r="AC58" s="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>95</v>
       </c>
@@ -4802,8 +6303,32 @@
       <c r="T59" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U59" s="18">
+        <v>46</v>
+      </c>
+      <c r="V59" s="19">
+        <v>11</v>
+      </c>
+      <c r="W59" s="19">
+        <v>3</v>
+      </c>
+      <c r="X59" s="19">
+        <v>86</v>
+      </c>
+      <c r="Z59" s="16">
+        <v>13</v>
+      </c>
+      <c r="AA59" s="16">
+        <v>29</v>
+      </c>
+      <c r="AB59" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC59" s="16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>96</v>
       </c>
@@ -4860,8 +6385,32 @@
       <c r="T60" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U60" s="18">
+        <v>49</v>
+      </c>
+      <c r="V60" s="19">
+        <v>0</v>
+      </c>
+      <c r="W60" s="19">
+        <v>0</v>
+      </c>
+      <c r="X60" s="19">
+        <v>52</v>
+      </c>
+      <c r="Z60" s="16">
+        <v>10</v>
+      </c>
+      <c r="AA60" s="16">
+        <v>38</v>
+      </c>
+      <c r="AB60" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC60" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>97</v>
       </c>
@@ -4918,8 +6467,32 @@
       <c r="T61" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U61" s="18">
+        <v>54</v>
+      </c>
+      <c r="V61" s="19">
+        <v>0</v>
+      </c>
+      <c r="W61" s="19">
+        <v>0</v>
+      </c>
+      <c r="X61" s="19">
+        <v>104</v>
+      </c>
+      <c r="Z61" s="16">
+        <v>28</v>
+      </c>
+      <c r="AA61" s="16">
+        <v>19</v>
+      </c>
+      <c r="AB61" s="16">
+        <v>23</v>
+      </c>
+      <c r="AC61" s="16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>98</v>
       </c>
@@ -4976,8 +6549,32 @@
       <c r="T62" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U62" s="18">
+        <v>43</v>
+      </c>
+      <c r="V62" s="19">
+        <v>10</v>
+      </c>
+      <c r="W62" s="19">
+        <v>3</v>
+      </c>
+      <c r="X62" s="19">
+        <v>76</v>
+      </c>
+      <c r="Z62" s="16">
+        <v>20</v>
+      </c>
+      <c r="AA62" s="16">
+        <v>31</v>
+      </c>
+      <c r="AB62" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC62" s="16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>99</v>
       </c>
@@ -5034,8 +6631,32 @@
       <c r="T63" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U63" s="18">
+        <v>43</v>
+      </c>
+      <c r="V63" s="19">
+        <v>3</v>
+      </c>
+      <c r="W63" s="19">
+        <v>0</v>
+      </c>
+      <c r="X63" s="19">
+        <v>32</v>
+      </c>
+      <c r="Z63" s="16">
+        <v>13</v>
+      </c>
+      <c r="AA63" s="16">
+        <v>12</v>
+      </c>
+      <c r="AB63" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC63" s="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>100</v>
       </c>
@@ -5091,6 +6712,30 @@
       </c>
       <c r="T64" s="16" t="s">
         <v>101</v>
+      </c>
+      <c r="U64" s="18">
+        <v>45</v>
+      </c>
+      <c r="V64" s="19">
+        <v>7</v>
+      </c>
+      <c r="W64" s="19">
+        <v>0</v>
+      </c>
+      <c r="X64" s="19">
+        <v>67</v>
+      </c>
+      <c r="Z64" s="16">
+        <v>19</v>
+      </c>
+      <c r="AA64" s="16">
+        <v>19</v>
+      </c>
+      <c r="AB64" s="16">
+        <v>12</v>
+      </c>
+      <c r="AC64" s="16">
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="13" x14ac:dyDescent="0.15">
@@ -25994,16 +27639,16 @@
       <c r="T1014" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A65:T998 A2:R64">
-    <cfRule type="expression" dxfId="7" priority="9">
+  <conditionalFormatting sqref="A2:R64 A65:T998">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J33">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$I2=$J2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$I2&lt;&gt;$J2</formula>
     </cfRule>
   </conditionalFormatting>
